--- a/통계이론 및 실습/실습데이터2/정규분포.xlsx
+++ b/통계이론 및 실습/실습데이터2/정규분포.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\KISTI\엑셀데이터분석\새 폴더\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\kis\통계이론 및 실습\실습데이터2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>평균이 5이고 표준편차가 2인 정규분포</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,6 +35,26 @@
   </si>
   <si>
     <t>표준편차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P(X&gt;=x)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-P(X&lt;=x)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>키가 180이상인 친구는 상위 5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180-170/6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P(X) 1.645 = 5%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -365,40 +385,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C5"/>
+  <dimension ref="B2:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="28.875" customWidth="1"/>
+    <col min="5" max="5" width="24.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>2</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <f>1-NORMDIST(180,170,6,1)</f>
+        <v>4.7790352272814696E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <f>1-_xlfn.NORM.S.DIST(5/3,1)</f>
+        <v>4.7790352272814696E-2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <f>_xlfn.NORM.S.INV(0.95)</f>
+        <v>1.6448536269514715</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>